--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>99.05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.73</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>002067</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>诺安精选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002067</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安精选回报灵活配置混合</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.78</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>60.30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.14</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4610</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.08</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.14</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.79</v>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2231,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8725</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2269,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.11</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.08</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.14</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2657,14 +2744,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.79</v>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2673,14 +2782,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.11</v>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3571</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2689,13 +2820,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>5.45</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>7.11</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>9.08</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.14</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.79</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.68</v>
       </c>
     </row>
@@ -600,6 +617,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +2286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2356,290 +3417,6 @@
       </c>
       <c r="H16" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0502</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安安信消费混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9629</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6279</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012370</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华鑫利一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>44.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3747</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2704,36 +3481,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3159</t>
+          <t>2.0502</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2742,36 +3519,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>519002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>华安安信消费混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>25.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>80.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2161</t>
+          <t>0.9629</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2780,36 +3557,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1134</t>
+          <t>0.6279</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2818,36 +3595,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>012370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.06</t>
+          <t>44.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.3747</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2856,36 +3633,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>80.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.1027</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2904,26 +3681,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>99.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2932,6 +3709,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3101,7 +4162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600216-浙江医药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>5.54</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>5.45</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>7.11</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>9.08</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>4.14</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.79</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.68</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2286,7 +2947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3417,290 +4078,6 @@
       </c>
       <c r="H16" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0502</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安安信消费混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9629</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6279</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012370</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华鑫利一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>44.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3747</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3765,36 +4142,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3159</t>
+          <t>2.0502</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3803,36 +4180,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>519002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>华安安信消费混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>25.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>80.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2161</t>
+          <t>0.9629</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3841,36 +4218,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1134</t>
+          <t>0.6279</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3879,36 +4256,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>012370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.06</t>
+          <t>44.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.3747</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3917,36 +4294,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>80.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.1027</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3965,26 +4342,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>99.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3993,6 +4370,290 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4160,250 +4821,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3571</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1821</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0772</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>